--- a/Temizlenmiş Üye Bilgi Liste/Temizlenmiş Üye Bilgi Liste - 7. komite.xlsx
+++ b/Temizlenmiş Üye Bilgi Liste/Temizlenmiş Üye Bilgi Liste - 7. komite.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E297"/>
+  <dimension ref="A1:H297"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,21 @@
           <t>Tescilli Adresi</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Şirket Türü</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Meslek Grubu Numarası</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Meslek Grubu Adı</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -482,6 +497,21 @@
           <t xml:space="preserve"> 1379 SK. NO:14/B İZMİR ALSANCAK  / </t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -505,6 +535,21 @@
           <t xml:space="preserve"> DONANMACI MAH. 1728 SK. TAYLAN NO: 38 İÇ KAPI NO: 1 KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -528,6 +573,21 @@
           <t xml:space="preserve"> MEVLANA MAHALLESİ 1750/2 SK.  NO: 2 A  BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -551,6 +611,21 @@
           <t xml:space="preserve"> GÜNEŞLİ MAHALLESİ YEŞİLLİK CAD.  NO: 12 A  KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -574,6 +649,21 @@
           <t>YUNUS EMRE MAHALLESİ 7553 SOKAK NO: 7A  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -597,6 +687,21 @@
           <t xml:space="preserve"> ATATÜRK MAH. 895 SK.  NO: 7  İÇ KAPI NO: 1 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -620,6 +725,21 @@
           <t xml:space="preserve"> KURUÇEŞME MAH. 205 SK. NO: 70A BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -643,6 +763,21 @@
           <t>EGEMENLİK MAHALLESİ 6016/10 SOKAK S.S. GERİ KAZANICILAR SİTESİ  NO: 7 BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -666,6 +801,21 @@
           <t xml:space="preserve"> MİTHATPAŞA CD. NO:477 GÜZELBAHÇE/İZMİR  / </t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -689,6 +839,21 @@
           <t>GÖKSU                     MAHALLESİ AYDIN HATBOYU CD. NO: 549A BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -708,6 +873,21 @@
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -731,6 +911,21 @@
           <t xml:space="preserve"> KARACAOĞLAN MAH. 6169 SK. A BLOK  NO: 12A BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -754,6 +949,21 @@
           <t>YAMANLAR MAHALLESİ BARIŞ  CAD. NO:60/A  BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -777,6 +987,21 @@
           <t>ÖRNEKKÖY MAHALLESİ GİRNE BULVARI.CADDE NO:271/A  KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -800,6 +1025,21 @@
           <t xml:space="preserve"> YENİ HAVAALANI CADDESİ  ÇİĞLİ           / İZMİR</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -823,6 +1063,21 @@
           <t xml:space="preserve"> YENİ HAVAALANI YOLU NO:40  ÇİĞLİ           / İZMİR</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -846,6 +1101,21 @@
           <t xml:space="preserve"> HALKAPINAR MAH. 1202/8 SK. NO: 7 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -869,6 +1139,21 @@
           <t xml:space="preserve"> TUNA MAH. SANAT CAD. NO: 35 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -892,6 +1177,21 @@
           <t xml:space="preserve"> 1202/2 SOKAK NO:40  YENİŞEHİR / İZMİR</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -915,6 +1215,21 @@
           <t>SELVİLİ MAHALLESİ 4019 SK. NO: 27 B KARABAĞLAR      / İZMİR</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -934,6 +1249,21 @@
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -957,6 +1287,21 @@
           <t>GAZİ                      MAHALLESİ KEMAL REİS CAD. NO: 17/17/A GAZİEMİR        / İZMİR</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -980,6 +1325,21 @@
           <t xml:space="preserve"> GAZİOSMANPAŞA BULV.  ALSANCAK / İZMİR</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1003,6 +1363,21 @@
           <t xml:space="preserve"> RAFET PAŞA MAH. 5058 SK. HALİL SARAY SİTESİ NO: 11A BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1026,6 +1401,21 @@
           <t>BAYRAKLI MAHALLESİ ORD.PROF.DR.EKREM AKURGAL SK. NO: 54C BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1045,6 +1435,21 @@
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1068,6 +1473,21 @@
           <t>HÜRRİYET MAHALLESİ SÜLEYMAN DEMİREL BLV. NO:18/511 ADA 1 PARSEL A BLOK 22 NOLU BAĞIMSIZ BÖLÜM MENDERES        / İZMİR</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1091,6 +1511,21 @@
           <t xml:space="preserve"> HASAN TAHSİN CAD.  HATAY KARABAĞLAR      / İZMİR</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1114,6 +1549,21 @@
           <t xml:space="preserve"> MERİÇ MAHALLESİ 5751 SK.  NO: 3  BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1137,6 +1587,21 @@
           <t xml:space="preserve"> KIZILCAYER KÜMEEVLER NO:12/1 DÜZCE KÖYÜ AĞAÇEŞMESİ MEVKİİ SEFERİHİSAR     / İZMİR</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1160,6 +1625,21 @@
           <t xml:space="preserve"> DOĞANLAR MAHALLESİ 1519 SOKAK NO:35 BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1183,6 +1663,21 @@
           <t xml:space="preserve"> ALSANCAK MAHALLESİ 1439 SK.  NO: 15 /2C/_  KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1206,6 +1701,21 @@
           <t>KARACAOĞLAN               MAHALLESİ 6169 SOKAK 11/A BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1229,6 +1739,21 @@
           <t xml:space="preserve"> YAYLACIK MAH. GAZİ OSMAN PAŞA CAD. NO: 46-1A BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1252,6 +1777,21 @@
           <t>GAZİLER MAHALLESİ GAZİ OSMAN PAŞA CADDESİ NO: 157A  İÇ KAPI NO: A BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1275,6 +1815,21 @@
           <t xml:space="preserve"> YILDIZ MAHALLESİ 242/1 SK.  NO: 47 A/A  BUCA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1298,6 +1853,21 @@
           <t>KOŞUKAVAK                 MAHALLESİ 4225 SOKAK NO: 24/A- BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1321,6 +1891,21 @@
           <t>YALI MAHALLESİ 144/2 SOKAK NO:32  GÜZELBAHÇE      / İZMİR</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1344,6 +1929,21 @@
           <t xml:space="preserve"> YEŞİL MAHALLESİ ABDÜLHAMİT YAVUZ CAD.  NO: 38 B/_  GAZİEMİR/İZMİR  / </t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1367,6 +1967,21 @@
           <t xml:space="preserve"> KÜLTÜR MAH. NEVVAR SALİH İŞGÖREN SK. YÜNCÜ APT NO: 14D KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1390,6 +2005,21 @@
           <t>VATAN MAHALLESİ POLAT CAD. NO:59/C  KARABAĞLAR      / İZMİR</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1413,6 +2043,21 @@
           <t xml:space="preserve"> FIRAT MAHALLESİ  288  NO:18/A BUCA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1436,6 +2081,21 @@
           <t xml:space="preserve"> GÜRPINAR MAH. 7232/4 SK. AY-KOOP SİTESİ NO: 4A BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1459,6 +2119,21 @@
           <t xml:space="preserve"> NARLI MAH. MİTHATPAŞA CAD. KARAHAN NO: 327B NARLIDERE / İZMİR  / </t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1482,6 +2157,21 @@
           <t>KORUTÜRK MAHALLESİ ZEYTİN SOK. MOCUK BLOK  NO: 5/A  BALÇOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1505,6 +2195,21 @@
           <t xml:space="preserve"> ADALET MAH. MANAS BUL.  NO: 39  İÇ KAPI NO: 3201 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1528,6 +2233,21 @@
           <t>EVKA-3                    MAHALLESİ 126/12 SOKAK NERGİS-2 BLOK  NO: 6-2A BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1551,6 +2271,21 @@
           <t xml:space="preserve"> METİN OKTAY MAH. 108/3 SK. NO: 3A KARABAĞLAR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1574,6 +2309,21 @@
           <t xml:space="preserve"> ADATEPE MAH. 3 SK.  NO: 55A BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1597,6 +2347,21 @@
           <t>FEVZİ ÇAKMAK MAHALLESİ YÖRÜK SOKAK NO:11  DEĞİRMENDERE MENDERES        / İZMİR</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1620,6 +2385,21 @@
           <t xml:space="preserve"> KÜLTÜR MAH. ZUHAL YORGANCIOĞLU SK. YÜCEL NO: 4 İÇ KAPI NO: 8 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1643,6 +2423,21 @@
           <t>EVKA-3 MAHALLESİ CENGİZHAN CADDESİ NO:22/A ÇINAR BLOK   BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1666,6 +2461,21 @@
           <t>KAZIMDİRİK MAHALLESİ MUSTAFA KEMAL CADDESI NO: 61 A BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1689,6 +2499,21 @@
           <t xml:space="preserve"> MUSTAFA KEMAL CAD. NO:127/A  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1712,6 +2537,21 @@
           <t xml:space="preserve"> BAHRİYE ÜÇOK CAD. NO:12/E 1879 SOKAK KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1735,6 +2575,21 @@
           <t xml:space="preserve"> 6170 SK NO:11 Z:13 IŞIKLAR MENAŞ İŞ MERKEZİ IŞIKKENT BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1758,6 +2613,21 @@
           <t>16 EYLÜL MAHALLESİ 3010 SOK. NO:9/A  ÇEŞME           / İZMİR</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1781,6 +2651,21 @@
           <t xml:space="preserve"> ERDEM CADDESI NO:202 BUCA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1804,6 +2689,21 @@
           <t>VATAN MAHALLESİ İHSAN ALYANAK BLV. NO: 99A KARABAĞLAR      / İZMİR</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1827,6 +2727,21 @@
           <t>GÜZELYALI                 MAHALLESİ 56 SOKAK  NO: 27A  İÇ KAPI NO: A KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1850,6 +2765,21 @@
           <t>POLİGON MAHALLESİ İNÖNÜ CAD.  ATA Apt.  NO: 695 /2A  KARABAĞLAR      / İZMİR</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1873,6 +2803,21 @@
           <t xml:space="preserve"> ÜÇKUYULAR MAHALLESİ İNÖNÜ CAD. NO: 841 B/B KARABAĞLAR/İZMİR  / </t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -1896,6 +2841,21 @@
           <t>GÜZELYALI                 MAHALLESİ 38 SOKAK NO:18/A  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1919,6 +2879,21 @@
           <t>BASIN SİTESİ MAHALLESİ İNÖNÜ CAD. NO:349/E  KARABAĞLAR      / İZMİR</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -1942,6 +2917,21 @@
           <t xml:space="preserve"> NARLI MAH. İSMET İNÖNÜ CAD. NO: 22A NARLIDERE / İZMİR  / </t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -1965,6 +2955,21 @@
           <t>İNÖNÜ                     MAHALLESİ 677/31 SK. NO:2  BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -1988,6 +2993,21 @@
           <t xml:space="preserve"> 383 SOKAK NO:5 KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -2011,6 +3031,21 @@
           <t>HALKAPINAR MAHALLESİ 1202/8 SOKAK NO: 12 KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -2034,6 +3069,21 @@
           <t>NARLI                     MAHALLESİ MİTHATPAŞA CAD. NO:325 SUZAN BLOK   NARLIDERE       / İZMİR</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -2057,6 +3107,21 @@
           <t>KASIMPAŞA MAHALLESİ ATATÜRK CAD. NO: 101-103  İÇ KAPI NO: 1 MENDERES        / İZMİR</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -2080,6 +3145,21 @@
           <t xml:space="preserve"> İTOB OSB MAHALLESİ 10024 SK.  NO: 16  MENDERES/İZMİR  / </t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -2103,6 +3183,21 @@
           <t>EVKA 3 MAHALLESİ 112/4 SK. B BLOK Apt.  NO: 15/1 BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -2126,6 +3221,21 @@
           <t>HALKAPINAR MAHALLESİ 1202/8 SOKAK NO:14  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -2149,6 +3259,21 @@
           <t xml:space="preserve"> YILDIZ MAH. 242/1 SK. NO: 47B İÇ KAPI NO: B BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -2172,6 +3297,21 @@
           <t>HALKAPINAR MAHALLESİ 1202/7 SOKAK NO:8  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -2195,6 +3335,21 @@
           <t>CAMİKEBİR                 MAHALLESİ 50 SK. NO:3/A  SEFERİHİSAR     / İZMİR</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -2218,6 +3373,21 @@
           <t>CAMİKEBİR                 MAHALLESİ 45 SK. NO:15  SEFERİHİSAR     / İZMİR</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -2241,6 +3411,21 @@
           <t xml:space="preserve"> ATATÜRK MAHALLESİ 830/1 SK.  NO: 2 B  BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -2260,6 +3445,21 @@
         </is>
       </c>
       <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -2283,6 +3483,21 @@
           <t xml:space="preserve"> TELEFERİK MAHALLESİ SAKARYA CADDESI NO:13/A BALÇOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -2306,6 +3521,21 @@
           <t>ONUR                      MAHALLESİ ATA CADDESI NO:54/B  BALÇOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -2329,6 +3559,21 @@
           <t xml:space="preserve"> ALAÇATI MAH. 12012 SK.  NO: 54 ÇEŞME / İZMİR  / </t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -2352,6 +3597,21 @@
           <t xml:space="preserve"> YALI MAH. 6500/1 SK. NO: 8I İÇ KAPI NO: 9 KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -2375,6 +3635,21 @@
           <t>İNÖNÜ MAHALLESİ 9501 SOKAK  NO: 1G ÇİĞLİ           / İZMİR</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -2398,6 +3673,21 @@
           <t xml:space="preserve"> ADALET MAH. MANAS BUL. NO: 39  İÇ KAPI NO: 3408 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -2421,6 +3711,21 @@
           <t xml:space="preserve"> ALSANCAK MAHALLESİ 1440 SK.  NO: 16 A/0  KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -2444,6 +3749,21 @@
           <t xml:space="preserve"> 7098 SOKAK NO:1  PINARBAŞI BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -2467,6 +3787,21 @@
           <t xml:space="preserve"> DOKUZ EYLÜL MAHALLESİ 315 SK.  NO: 28 A  GAZİEMİR/İZMİR  / </t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -2490,6 +3825,21 @@
           <t xml:space="preserve"> MAVİŞEHİR MAH. CAHER DUDAYEV BUL.  NO: 28E KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -2513,6 +3863,21 @@
           <t>KUŞÇULAR MAHALLESİ 8065 SK. NO: 20 D  URLA            / İZMİR</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -2536,6 +3901,21 @@
           <t xml:space="preserve"> GÖRECE CUMHURİYET MAH. MİTHATPAŞA CAD. 2A1 NO: 2A MENDERES / İZMİR  / </t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -2559,6 +3939,21 @@
           <t xml:space="preserve"> 234 SOKAK NO:3 Özkanlar   BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -2582,6 +3977,21 @@
           <t xml:space="preserve"> YUKARI KIZILCA KIRAVLUSU KÜMEEVLERİ   NO:5 KEMALPAŞA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -2605,6 +4015,21 @@
           <t>MEHTAP                    MAHALLESİ 3617 SOKAK NO:132/1 İÇ KAPI NO: 1 KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -2628,6 +4053,21 @@
           <t xml:space="preserve"> YAKAKENT MAH. 8172 SK. NO: 75A ÇİĞLİ / İZMİR  / </t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -2651,6 +4091,21 @@
           <t>HALKAPINAR MAHALLESİ 1202/8 SOKAK NO:14  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -2674,6 +4129,21 @@
           <t xml:space="preserve"> GÜRPINAR MAH. 7232/4 SK. AY-KOOP SİTESİ  NO: 22A BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -2697,6 +4167,21 @@
           <t>KEMALPAŞA OSB MAHALLESİ ÖTEYAKA KÜME EVLERİ NO: 3  KEMALPAŞA       / İZMİR</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -2720,6 +4205,21 @@
           <t>ONUR MAHALLESİ ATA CAD. ÖZKAN BLOK  NO: 50A  İÇ KAPI NO: /A BALÇOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -2743,6 +4243,21 @@
           <t>BOSTANLI                  MAHALLESİ ŞEHİTLER BULVARI NO: 11B KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -2766,6 +4281,21 @@
           <t xml:space="preserve"> GÜVENDİK MAH. 236 SK. NO: 13 URLA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -2789,6 +4319,21 @@
           <t xml:space="preserve"> CUMHURİYET BULVARI NO:139  KAT:4 ALSANCAK / İZMİR</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -2812,6 +4357,21 @@
           <t xml:space="preserve"> BARBAROS MAH. MİTHATPAŞA CAD. HASBAY BLOK  NO: 91 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -2835,6 +4395,21 @@
           <t xml:space="preserve"> BAHÇELERARASI MAH. ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO: 3 İÇ KAPI NO: 1B79 BALÇOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -2858,6 +4433,21 @@
           <t xml:space="preserve"> BAHAR MAH. ESKİİZMİR CAD. NO: 134/1 KARABAĞLAR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -2881,6 +4471,21 @@
           <t>DOKUZ EYLÜL MAHALLESİ AKÇAY CAD. NO:253/3/1  GAZİEMİR        / İZMİR</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -2904,6 +4509,21 @@
           <t xml:space="preserve"> GÖKDERE MAH. GÖKDERE CAD.  NO: 38/3 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -2927,6 +4547,21 @@
           <t xml:space="preserve"> BİRLİK MAH. 4217 SK.  NO: 4A BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -2950,6 +4585,21 @@
           <t xml:space="preserve"> 6305 SK. NO:11 ŞEMİKLER KARŞIYAKA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -2973,6 +4623,21 @@
           <t xml:space="preserve"> GÖRECE CUMHURİYET MAHALLESİ FAHRİ KORUTÜRK BLV.  NO: 4 B3  MENDERES/İZMİR  / </t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -2996,6 +4661,21 @@
           <t>FATİH                     MAHALLESİ 1203 SOKAK NO:28  GAZİEMİR        / İZMİR</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -3019,6 +4699,21 @@
           <t>YALI MAHALLESİ İDİL BİRET CADDESİ NO: 17 KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -3042,6 +4737,21 @@
           <t xml:space="preserve"> ATAŞEHİR MAH. 8019/4 SK. ÇALIŞCIMAN BLOK  NO: 2 ÇİĞLİ / İZMİR  / </t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -3065,6 +4775,21 @@
           <t>KÖY İÇİ MAHALLESİ 8050 SK. NO:28/A/0  ÇİĞLİ           / İZMİR</t>
         </is>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -3088,6 +4813,21 @@
           <t>BAHÇELİEVLER              MAHALLESİ ORHAN ŞAİK GÖKYAY CD. NO: 48A  KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -3111,6 +4851,21 @@
           <t xml:space="preserve"> BASIN SİTESİ MAH. İNÖNÜ CAD. NO: 357D KARABAĞLAR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -3134,6 +4889,21 @@
           <t>KAZIMDİRİK MAHALLESİ SAKARYA CAD. A+B BLOK  NO: 1/1A BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -3157,6 +4927,21 @@
           <t xml:space="preserve"> ŞEMİKLER MAH. ORDU BUL. BULVAR SİTESİ NO: 218A KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -3180,6 +4965,21 @@
           <t xml:space="preserve"> 9125/6 SOKAK NO:65/B  YEŞİLYURT KARABAĞLAR/İZMİR  / </t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -3203,6 +5003,21 @@
           <t xml:space="preserve"> MİTHATPAŞA CADDESİ YALI MAHALLESİ NO:365  GÜZELBAHÇE/İZMİR  / </t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -3226,6 +5041,21 @@
           <t xml:space="preserve"> GÖZTEPE MAH. MİTHATPAŞA CAD. NO: 911B KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -3249,6 +5079,21 @@
           <t xml:space="preserve"> YENİGÜN MAH. NAZIM HİKMET CAD. FEVZİ BEY NO: 52A BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -3272,6 +5117,21 @@
           <t xml:space="preserve"> 1202/9 SOK. NO:9  YENİŞEHİR / İZMİR</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -3295,6 +5155,21 @@
           <t>TEPECİK                   MAHALLESİ AKÇAKAYA (KÜME EVLER) NO: 3/0  SEFERİHİSAR     / İZMİR</t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -3318,6 +5193,21 @@
           <t xml:space="preserve"> KAZIMDİRİK MAH. 372/30 SK. NO: 2/5 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -3341,6 +5231,21 @@
           <t xml:space="preserve"> 1725 SK. NO:31/A  KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -3364,6 +5269,21 @@
           <t xml:space="preserve"> ADALET MAH. MANAS BUL. FOLKART TOWERS NO: 47B  İÇ KAPI NO: 2601 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -3387,6 +5307,21 @@
           <t>YUNUS EMRE MAHALLESİ 4234 SK. NO: 21A KARABAĞLAR      / İZMİR</t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -3410,6 +5345,21 @@
           <t>KONAK MAHALLESİ CUMHURİYET BLV. KONAK İŞHANI BLOK  NO: 24  İÇ KAPI NO: 85  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -3433,6 +5383,21 @@
           <t xml:space="preserve"> ADALET MAH. MANAS BUL. NO: 39 İÇ KAPI NO: 3408 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -3456,6 +5421,21 @@
           <t xml:space="preserve"> YAYLACIK MAH. 46/7 SK.  NO: 2A BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -3479,6 +5459,21 @@
           <t xml:space="preserve"> 1456 SOKAK NO:94/1-A  ALSANCAK / İZMİR</t>
         </is>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -3502,6 +5497,21 @@
           <t xml:space="preserve"> TURGUT MAHALLESİ PINAR SK. NO: 11/ SEFERİHİSAR/İZMİR  / </t>
         </is>
       </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -3525,6 +5535,21 @@
           <t xml:space="preserve"> MEVLANA MAH. 1710/4 SK. NO: 19A BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -3548,6 +5573,21 @@
           <t xml:space="preserve"> 4517/2 SOKAK NO:14  YENİÇAMLIK / İZMİR</t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -3571,6 +5611,21 @@
           <t xml:space="preserve"> 200/29 SK. NO:9/A  BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -3594,6 +5649,21 @@
           <t>ALİ FUAT CEBESOY MAHALLESİ 9131/13 SK.  NO: 6  İÇ KAPI NO: 1 KARABAĞLAR      / İZMİR</t>
         </is>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -3617,6 +5687,21 @@
           <t xml:space="preserve"> DOKUZ EYLÜL MAHALLESİ AKÇAY CAD. EGEM APT.  NO: 213 /2  GAZİEMİR/İZMİR  / </t>
         </is>
       </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -3636,6 +5721,21 @@
         </is>
       </c>
       <c r="E140" t="inlineStr"/>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -3655,6 +5755,21 @@
         </is>
       </c>
       <c r="E141" t="inlineStr"/>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -3674,6 +5789,21 @@
         </is>
       </c>
       <c r="E142" t="inlineStr"/>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -3697,6 +5827,21 @@
           <t xml:space="preserve"> FIRAT MAH. 272 SK. PRESTIJ SİTESİ B BLOK NO: 157C İÇ KAPI NO: C BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -3720,6 +5865,21 @@
           <t>ATIFBEY                   MAHALLESİ 6/1 SOKAK NO:3/B  GAZİEMİR        / İZMİR</t>
         </is>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -3743,6 +5903,21 @@
           <t xml:space="preserve"> GONCALAR MAH. ALİ ALP BÖKE CAD. METİN YENİCE BLOK  NO: 67D KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -3766,6 +5941,21 @@
           <t xml:space="preserve"> GÜNEŞLİ  529/2   NO:1/B KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -3789,6 +5979,21 @@
           <t xml:space="preserve"> KIRKLAR MAH. DEMOKRASİ CAD. NO: 2/2A BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -3812,6 +6017,21 @@
           <t xml:space="preserve"> CAMİKEBİR MAH. NECAT HEPKON CAD. NO: 23A SEFERİHİSAR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -3835,6 +6055,21 @@
           <t xml:space="preserve"> TEPECİK MAH. AKÇAKAYA KÜME EVLERİ  B BLOK  NO: 3 SEFERİHİSAR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -3858,6 +6093,21 @@
           <t xml:space="preserve"> MEHMET AKİF ERSOY MAHALLESİ KİRAZLI CAD.  NO: 212 A  KEMALPAŞA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -3881,6 +6131,21 @@
           <t>ADALET                    MAHALLESİ 1586/7 SK. KIRKPINARLAR İŞ MERKEZİ KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -3904,6 +6169,21 @@
           <t>GÜVEN                     MAHALLESİ ONAT CADDESI NO. 15 A BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -3927,6 +6207,21 @@
           <t xml:space="preserve"> ONUR  AMBER  NO:10/A BALÇOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -3950,6 +6245,21 @@
           <t>ONUR MAHALLESİ 7399/20 SOKAK NO:1  BAYRAKLI / İZMİR</t>
         </is>
       </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -3973,6 +6283,21 @@
           <t xml:space="preserve"> TINAZTEPE MAHALLESİ RAKIM ELKUTLU CAD.  NO: 8 A  KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -3996,6 +6321,21 @@
           <t xml:space="preserve"> KAZIMDİRİK MAH. 156 SK. AKALIN NO: 7A BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -4019,6 +6359,21 @@
           <t xml:space="preserve"> BASIN SİTESİ MAH. İNÖNÜ CAD. ARI NO: 425 KARABAĞLAR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -4042,6 +6397,21 @@
           <t>MUAMMER AKAR MAHALLESİ 45 SOK. NO:3/C  KARABAĞLAR      / İZMİR</t>
         </is>
       </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -4065,6 +6435,21 @@
           <t xml:space="preserve"> MEHMETÇİK BULVARI NO:22/A  KARABAĞLAR      / İZMİR</t>
         </is>
       </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -4088,6 +6473,21 @@
           <t>ILICA MAHALLESİ YENİ CAMİ SOK. NO:24/A  NARLIDERE       / İZMİR</t>
         </is>
       </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -4111,6 +6511,21 @@
           <t>YELKİ MAHALLESİ 2245/1 SK. NO:18/A  GÜZELBAHÇE      / İZMİR</t>
         </is>
       </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -4134,6 +6549,21 @@
           <t>CELAL BAYAR MAHALLESİ 5176 SK. NO: 49  ÇEŞME           / İZMİR</t>
         </is>
       </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -4157,6 +6587,21 @@
           <t>GÜNEŞLİ                   MAHALLESİ 515 SOKAK HALLAÇ BLOK  NO: 45A  İÇ KAPI NO: A  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -4180,6 +6625,21 @@
           <t xml:space="preserve"> 899 SOK. NO:30/A  HİSARÖNÜ / İZMİR</t>
         </is>
       </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -4203,6 +6663,21 @@
           <t xml:space="preserve"> GAZİ OSMAN PAŞA MAH. 5490/2 SK.  NO: 22 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -4226,6 +6701,21 @@
           <t xml:space="preserve"> ADALET MAH. MANAS BUL. FOLKART TOWERS NO: 47B İÇ KAPI NO: 2601 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -4249,6 +6739,21 @@
           <t xml:space="preserve"> 1202/2 SOKAK NO:67/B  YENİŞEHİR KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -4272,6 +6777,21 @@
           <t xml:space="preserve"> 929 SK. NO:74  KEMERALTI / İZMİR</t>
         </is>
       </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -4295,6 +6815,21 @@
           <t>ARAP HASAN MAHALLESİ 235 SK. NO:90  DAİRE:6 KARABAĞLAR      / İZMİR</t>
         </is>
       </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -4318,6 +6853,21 @@
           <t>GÖKSU                     MAHALLESİ 668/10 SK.  NO: 20-22  BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -4341,6 +6891,21 @@
           <t>EĞLENHOCA MAHALLESİ EĞLENHOCA (KÜME EVLER )  NO: 1 /1/1  KARABURUN       / İZMİR</t>
         </is>
       </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -4364,6 +6929,21 @@
           <t xml:space="preserve"> HALKAPINAR MAH. 1202/7 SK. GIDA ÇARŞISI İŞHANI NO: 1D İÇ KAPI NO: D KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -4387,6 +6967,21 @@
           <t>KIZILAY MAHALLESİ ZİYA GÖKALP CAD. NO: 10A  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -4410,6 +7005,21 @@
           <t>YENİŞEHİR                 MAHALLESİ 1202 SOKAK HIRDAVATÇILAR İŞHANI BLOK NO:148 İÇKAPINO:115 KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -4433,6 +7043,21 @@
           <t xml:space="preserve"> KAZIMDİRİK MAH. 284 SK.  NO: 2  İÇ KAPI NO: 609 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -4456,6 +7081,21 @@
           <t xml:space="preserve"> 227 SK. NO:51/A  ÇAMDİBİ / İZMİR</t>
         </is>
       </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -4479,6 +7119,21 @@
           <t xml:space="preserve"> KOŞUKAVAK MAH. KAMİL TUNCA CAD. NO: 280 İÇ KAPI NO: 87 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -4502,6 +7157,21 @@
           <t xml:space="preserve"> ADALET MAHALLESİ MANAS BLV. FOLKART TOWERS APT.  NO: 47 A  BAYRAKLI/İZMİR  / </t>
         </is>
       </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -4525,6 +7195,21 @@
           <t xml:space="preserve"> KÜLTÜR MAH. 1383 SK. TÜLİN NO: 7B KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -4548,6 +7233,21 @@
           <t xml:space="preserve"> ALAÇATI MAH. 12012 SK. NO: 30 ÇEŞME / İZMİR  / </t>
         </is>
       </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -4571,6 +7271,21 @@
           <t xml:space="preserve"> MEHMET AKİF ERSOY MAH. 2. ÖTEYAKA KÜME EVLERİ NO: 15 İÇ KAPI NO: 1 KEMALPAŞA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -4594,6 +7309,21 @@
           <t xml:space="preserve"> KOŞUKAVAK MAH. 4195 SK. NO: 33 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -4617,6 +7347,21 @@
           <t>SELVİLİ MAHALLESİ 4082 SK. NO: 2 A KARABAĞLAR      / İZMİR</t>
         </is>
       </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -4640,6 +7385,21 @@
           <t xml:space="preserve"> 75.YIL CUMHURİYET MAHALLESİ İZMİR ANKARA CAD.  NO: 701 /3  KEMALPAŞA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -4663,6 +7423,21 @@
           <t xml:space="preserve"> ARAP HASAN MAH. 239 SK. NO: 21B KARABAĞLAR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -4686,6 +7461,21 @@
           <t xml:space="preserve"> 4024 SOKAK NO:10  KARABAĞLAR / İZMİR</t>
         </is>
       </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -4709,6 +7499,21 @@
           <t xml:space="preserve"> BUCA KOOP MAH. 200/17 SK. B BLOK  NO: 30B BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -4732,6 +7537,21 @@
           <t>KURUÇEŞME                 MAHALLESİ DOĞUŞ CADDESI OTAĞKENT SİTESİ  NO: 196A  BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -4755,6 +7575,21 @@
           <t>O.S.B MAHALLESİ 10007 SOKAK NO:4 İTOB MENDERES        / İZMİR</t>
         </is>
       </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -4778,6 +7613,21 @@
           <t xml:space="preserve"> 2564 SOKAK NO:50  GÜLTEPE KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -4801,6 +7651,21 @@
           <t xml:space="preserve"> YUNUS EMRE   7524  NO:2/C  BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -4824,6 +7689,21 @@
           <t xml:space="preserve"> YUNUS EMRE MAHALLESİ 7524  SOKAK NO:2/C BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -4847,6 +7727,21 @@
           <t xml:space="preserve"> ALTINTAŞ MAH. ESEN SK. NO: 7A URLA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -4870,6 +7765,21 @@
           <t xml:space="preserve"> YUNUS EMRE MAHALLESİ 7402/7 SK.  NO: 12 /1C  BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -4893,6 +7803,21 @@
           <t>YILDIZ                    MAHALLESİ 200/29 SK. NO:7/2  BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -4916,6 +7841,21 @@
           <t xml:space="preserve"> HALKAPINAR MAHALLESİ 1202/2 SK.  NO: 4 B/_  KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -4939,6 +7879,21 @@
           <t xml:space="preserve"> ADALET MAH. MANAS BUL. FOLKART TOWERS NO: 47B İÇ KAPI NO: 2601 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -4962,6 +7917,21 @@
           <t xml:space="preserve"> ÇAMTEPE MAH. MİTHATPAŞA CAD. KILIÇ BLOK  NO: 289A NARLIDERE / İZMİR  / </t>
         </is>
       </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -4985,6 +7955,21 @@
           <t>GÜVENDİK MAHALLESİ MEHMET ALİ AYGÜVEN CAD. NO:140/C 5,6,7 NOLU İŞYERİ BLOK URLA            / İZMİR</t>
         </is>
       </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -5008,6 +7993,21 @@
           <t>ÇATALKAYA                 MAHALLESİ MİTHATPAŞA CAD. NO:369/A  NARLIDERE       / İZMİR</t>
         </is>
       </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -5031,6 +8031,21 @@
           <t>YENİKENT MAHALLESİ NUR DİKMEN CAD. NO: 5 A URLA            / İZMİR</t>
         </is>
       </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -5054,6 +8069,21 @@
           <t>AKINCILAR                 MAHALLESİ 559 SK. NO: 8A BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -5077,6 +8107,21 @@
           <t>POLİGON MAHALLESİ İHSAN ALYANAK BLV. NO: 16B  KARABAĞLAR      / İZMİR</t>
         </is>
       </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -5100,6 +8145,21 @@
           <t>BOZYAKA MAHALLESİ COŞKUN KALE NO:4/B   KARABAĞLAR      / İZMİR</t>
         </is>
       </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -5119,6 +8179,21 @@
         </is>
       </c>
       <c r="E205" t="inlineStr"/>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -5142,6 +8217,21 @@
           <t xml:space="preserve"> 1202/2 SOKAK NO:27/C  YENİŞEHİR / İZMİR</t>
         </is>
       </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -5165,6 +8255,21 @@
           <t xml:space="preserve"> FIRAT MAH. 289/21 SK. NO: 18A İÇ KAPI NO: A BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -5184,6 +8289,21 @@
         </is>
       </c>
       <c r="E208" t="inlineStr"/>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -5207,6 +8327,21 @@
           <t xml:space="preserve"> YİĞİTLER MAH. FEVZİ ÇAKMAK CAD. FATİH NO: 24A İÇ KAPI NO: A BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -5230,6 +8365,21 @@
           <t xml:space="preserve"> MENDERES MAH. SEYFİ DEMİRSOY CAD. ÖZKAN NO: 22A İÇ KAPI NO: A BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -5253,6 +8403,21 @@
           <t xml:space="preserve"> ÇAMTEPE MAH. MİTHATPAŞA CAD. MUSTAFA POSTACI İŞHANI BLOK  NO: 291A NARLIDERE / İZMİR  / </t>
         </is>
       </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -5276,6 +8441,21 @@
           <t>ALAÇATI MAHALLESİ 12012 SK. NO:25  ÇEŞME           / İZMİR</t>
         </is>
       </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -5299,6 +8479,21 @@
           <t xml:space="preserve"> ADATEPE MAH. 4 SK.  NO: 42 BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -5318,6 +8513,21 @@
         </is>
       </c>
       <c r="E214" t="inlineStr"/>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -5341,6 +8551,21 @@
           <t xml:space="preserve"> YALI MAHALLESİ 6418 SK.  NO: 131 D/_  KARŞIYAKA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -5364,6 +8589,21 @@
           <t>ALİ FUAT CEBESOY MAHALLESİ 9170/5  SOKAK NO: 38  KARABAĞLAR      / İZMİR</t>
         </is>
       </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -5387,6 +8627,21 @@
           <t>VATAN MAHALLESİ POLAT CAD. ERZİN BLOK  NO: 135A KARABAĞLAR      / İZMİR</t>
         </is>
       </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -5410,6 +8665,21 @@
           <t>BASIN SİTESİ MAHALLESİ İNÖNÜ CAD. KURTULUŞ BLOK  NO: 355C KARABAĞLAR      / İZMİR</t>
         </is>
       </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -5433,6 +8703,21 @@
           <t>NARLI                     MAHALLESİ MİTHATPAŞA CAD.  NO: 309A  NARLIDERE       / İZMİR</t>
         </is>
       </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -5456,6 +8741,21 @@
           <t>ALTINTAŞ                  MAHALLESİ İNÖNÜ CADDESİ ÖMER EFENDİ BLOK  NO: 136A KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -5479,6 +8779,21 @@
           <t>HÜRRİYET                  MAHALLESİ 471 SK. ÇAKICI BLOK  NO: 31A BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -5502,6 +8817,21 @@
           <t>BAHAR MAHALLESİ 2929 SK. NO: 1  İÇ KAPI NO: 1 KARABAĞLAR      / İZMİR</t>
         </is>
       </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -5525,6 +8855,21 @@
           <t>ESENYALI MAHALLESİ İNÖNÜ CADDESİ BAYRAKTAROĞLU BLOK  NO: 589/1D KARABAĞLAR      / İZMİR</t>
         </is>
       </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -5548,6 +8893,21 @@
           <t>POLİGON MAHALLESİ İNÖNÜ CAD. TUĞÇE BLOK  NO: 697B  KARABAĞLAR      / İZMİR</t>
         </is>
       </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -5571,6 +8931,21 @@
           <t>VATAN MAHALLESİ POLAT CAD. KARDEŞLER BLOK  NO: 31B  İÇ KAPI NO: B KARABAĞLAR      / İZMİR</t>
         </is>
       </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -5594,6 +8969,21 @@
           <t>MUAMMER AKAR MAHALLESİ İNÖNÜ CAD. DENİZMEN BLOK  NO: 765A  İÇ KAPI NO: A KARABAĞLAR      / İZMİR</t>
         </is>
       </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -5617,6 +9007,21 @@
           <t>GÜLYAKA MAHALLESİ SAİM ÇIKRIKÇI CD. NO:123/F  KARABAĞLAR      / İZMİR</t>
         </is>
       </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -5640,6 +9045,21 @@
           <t xml:space="preserve"> BAHAR MAH. ESKİİZMİR CAD. KORKMAZ NO: 196B KARABAĞLAR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -5663,6 +9083,21 @@
           <t>ZAFERTEPE                 MAHALLESİ YEŞİLLİK CADDESİ NO: 27-31  İÇ KAPI NO: MÜSTAKİL KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -5686,6 +9121,21 @@
           <t xml:space="preserve"> 1690 SK. NO:6/B  KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -5709,6 +9159,21 @@
           <t xml:space="preserve"> MALTEPE MAHALLESİ MALTEPE CAD.  NO: 64 A  ÇİĞLİ/İZMİR  / </t>
         </is>
       </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -5732,6 +9197,21 @@
           <t xml:space="preserve"> YALI MAH. MİTHATPAŞA CAD. NO: 369A GÜZELBAHÇE / İZMİR  / </t>
         </is>
       </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -5755,6 +9235,21 @@
           <t>YALI MAHALLESİ MİTHATPAŞA CD. NO: 369A  GÜZELBAHÇE      / İZMİR</t>
         </is>
       </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -5778,6 +9273,21 @@
           <t>ÇAMTEPE                   MAHALLESİ GÜNGÖREN CAD. NO: 81 A NARLIDERE       / İZMİR</t>
         </is>
       </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -5801,6 +9311,21 @@
           <t>HACI İSA MAHALLESİ ERDOĞAN KER  CAD. NO:12/B  URLA            / İZMİR</t>
         </is>
       </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -5824,6 +9349,21 @@
           <t xml:space="preserve"> ESENYALI MAH. İNÖNÜ CAD. YILDIZ HANIM NO: 595E İÇ KAPI NO: E KARABAĞLAR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -5847,6 +9387,21 @@
           <t xml:space="preserve"> YUNUS EMRE MAHALLESİ KEMALPAŞA CAD.  NO: 317  BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -5870,6 +9425,21 @@
           <t xml:space="preserve"> AKDENİZ MAH. CUMHURİYET BUL. ERBOY İŞHANI NO: 82 İÇ KAPI NO: 51 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -5893,6 +9463,21 @@
           <t>ALAÇATI MAHALLESİ 12012 SK. NO: 38 ÇEŞME           / İZMİR</t>
         </is>
       </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -5916,6 +9501,21 @@
           <t>GÖRECE CUMHURİYET MAHALLESİ FAHRİ KORUTÜRK BULVARI NO: 4B2 MENDERES        / İZMİR</t>
         </is>
       </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -5939,6 +9539,21 @@
           <t xml:space="preserve"> KILIÇ REİS MAH. ŞÜKRÜ SARAÇOĞLU CAD. NO: 27/4C KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -5962,6 +9577,21 @@
           <t xml:space="preserve"> 1442 SOKAK NO:2/K İNŞAAT MALZEMLERİ SATICILARI İŞ MERKEZİ YENİŞEHİR KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -5985,6 +9615,21 @@
           <t>ALAÇATI MAHALLESİ KEMALPAŞA CAD. NO:89  ÇEŞME           / İZMİR</t>
         </is>
       </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -6008,6 +9653,21 @@
           <t>DALYAN MAHALLESİ 3011 SOKAK NO: 114A ÇEŞME           / İZMİR</t>
         </is>
       </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -6031,6 +9691,21 @@
           <t xml:space="preserve"> RÜSTEM MAH. ERDOĞAN KER CAD. NO: 16 URLA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -6054,6 +9729,21 @@
           <t xml:space="preserve"> KÜLTÜR MAHALLESİ ALİ ÇETİNKAYA BLV. SİDE APT.  NO: 31 /1C  KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -6077,6 +9767,21 @@
           <t xml:space="preserve"> ATATÜRK BULVARI NO:51 10006 SOK. A.O.S.B KAT:1 ÇİĞLİ           / İZMİR</t>
         </is>
       </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -6100,6 +9805,21 @@
           <t xml:space="preserve"> TORASAN MAH. 619 SK.  NO: 2/3 URLA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -6123,6 +9843,21 @@
           <t xml:space="preserve"> GÖKDERE MAH. GÖKDERE CAD. NO: 38/3 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -6146,6 +9881,21 @@
           <t xml:space="preserve"> BOSTANLI MAH. CEMAL BÜLBÜL SK. NO: 9B KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -6169,6 +9919,21 @@
           <t>KARACAOĞLAN MAHALLESİ 6166 SOKAK NO:24/D  IŞIKKENT BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -6192,6 +9957,21 @@
           <t>8 EYLÜL MAHALLESİ 109 SOKAK NO: 4 A KEMALPAŞA       / İZMİR</t>
         </is>
       </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -6215,6 +9995,21 @@
           <t>ALAÇATI MAHALLESİ 11057 SOKAK NO:1/S  ÇEŞME           / İZMİR</t>
         </is>
       </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -6238,6 +10033,21 @@
           <t xml:space="preserve"> DONANMACI MAH. 1728 SK. TAYLAN NO: 38 İÇ KAPI NO: 1 KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -6261,6 +10071,21 @@
           <t>ADALET MAHALLESİ MANAS BLV.  NO: 39  İÇ KAPI NO: 3408  BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -6284,6 +10109,21 @@
           <t>ONUR                      MAHALLESİ YİĞİT SOKAK BURCU BLOK  NO: 5A BALÇOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -6307,6 +10147,21 @@
           <t xml:space="preserve"> ADALET MAH. MANAS BUL. FOLKART TOWERS NO: 47B İÇ KAPI NO: 2804 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -6330,6 +10185,21 @@
           <t xml:space="preserve"> 1580 SOKAK NO:25/K  DOĞANLAR BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -6353,6 +10223,21 @@
           <t>BAHÇELİEVLER              MAHALLESİ GÜN SAZAK BLV. CENTAŞ BLOK  NO: 50B KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -6376,6 +10261,21 @@
           <t xml:space="preserve"> YAHYA KEMAL BEYATLI NO:92  BUCA EGE GİYİM ORGANİZE SANAYİ BÖLGESİ BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -6399,6 +10299,21 @@
           <t>KEMALPAŞA                 MAHALLESİ 7086 SOKAK NO:12  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -6422,6 +10337,21 @@
           <t xml:space="preserve"> 1202/9 SOK. NO:3  GIDA ÇARŞISI KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -6445,6 +10375,21 @@
           <t xml:space="preserve"> ÇINARLI MAH. ANADOLU CAD. NO: 19/1 İÇ KAPI NO: 85 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -6468,6 +10413,21 @@
           <t>YUNUS EMRE MAHALLESİ 7402 SOKAK NO: 4C BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -6491,6 +10451,21 @@
           <t xml:space="preserve"> ANKARA ASFALTI NO:1/10 SÜTÇÜLER KÖYÜ  10 NOLU DEPO KEMALPAŞA       / İZMİR</t>
         </is>
       </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -6514,6 +10489,21 @@
           <t xml:space="preserve"> ATA SANAYİ SİTESİ  8780/27  3 BLOK  NO:ZEMİN KAT NO:1/A ÇİĞLİ/İZMİR  / </t>
         </is>
       </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -6537,6 +10527,21 @@
           <t xml:space="preserve"> KARACAOĞLAN MAHALLESİ 6167 SK.  NO: 40 G  BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -6560,6 +10565,21 @@
           <t>HIDIRLIK                  MAHALLESİ NO:33 80. YIL CUMHURİYET NEYDANI SEFERİHİSAR     / İZMİR</t>
         </is>
       </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -6583,6 +10603,21 @@
           <t xml:space="preserve"> MİTHATPAŞA CAD. NO:1071/A  GÜZELYALI KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -6606,6 +10641,21 @@
           <t xml:space="preserve"> ÖRNEKKÖY MAH. 7415 SK.  NO: 3A KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -6629,6 +10679,21 @@
           <t>DÜZCE MAH MAHALLESİ NO:12/1-A  KIZILCAYER BALTALI SİTESİ SEFERİHİSAR     / İZMİR</t>
         </is>
       </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -6652,6 +10717,21 @@
           <t>AKALAN MAHALLESİ AKALAN CUMHURİYET KÜME EVLERİ CAD. NO:24/1  KEMALPAŞA       / İZMİR</t>
         </is>
       </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -6675,6 +10755,21 @@
           <t>IŞIKKENT MAHALLESİ AYDINLAR CD. NO:118  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -6698,6 +10793,21 @@
           <t xml:space="preserve"> ATIFBEY MAH. ÖNDER CAD. HASAN FEHİM BEY NO: 24/3D GAZİEMİR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -6721,6 +10831,21 @@
           <t xml:space="preserve"> 288/9 SK. NO:11  BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -6744,6 +10869,21 @@
           <t>AŞAĞIKIZILCA MAHALLESİ 2000 SOKAK NO:18/A  KEMALPAŞA       / İZMİR</t>
         </is>
       </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -6767,6 +10907,21 @@
           <t>GÜMÜLDÜR FEVZİ ÇAKMAK MAHALLESİ GAZİ MUSTAFA KEMAL PAŞA BLV. NO: 146D  MENDERES        / İZMİR</t>
         </is>
       </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -6790,6 +10945,21 @@
           <t xml:space="preserve"> GÜMÜLDÜR İNÖNÜ MAH. 6139 SK.  NO: 3/1 MENDERES / İZMİR  / </t>
         </is>
       </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -6813,6 +10983,21 @@
           <t xml:space="preserve"> ADALET MAHALLESİ MANAS BLV. FOLKART TOWERS APT.  NO: 47 B/2809  BAYRAKLI/İZMİR  / </t>
         </is>
       </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -6836,6 +11021,21 @@
           <t xml:space="preserve"> İNÖNÜ CD. NO:605/A  ESENYALI / İZMİR</t>
         </is>
       </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -6859,6 +11059,21 @@
           <t xml:space="preserve"> BADEMLER SEFERİHİSAR CADDESİ   NO:66 URLA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -6882,6 +11097,21 @@
           <t>AKSOY                     MAHALLESİ GİRNE CAD. NO:24/B  KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -6905,6 +11135,21 @@
           <t>HÜRRİYET                  MAHALLESİ AYDIN HATBOYU CADDESİ AYDIN BLOK  NO: 86A  İÇ KAPI NO: A  BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -6928,6 +11173,21 @@
           <t>PİRİ REİS                 MAHALLESİ 200 SOKAK NO: 154A KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -6951,6 +11211,21 @@
           <t xml:space="preserve"> KARACAOĞLAN MAH. 6169 SK. NO: 8 İÇ KAPI NO: 9 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -6974,6 +11249,21 @@
           <t>GÜNEŞLİ MAHALLESİ 529/2 SOK. NO:1/A  ÜÇYOL KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -6997,6 +11287,21 @@
           <t>ZÜBEYDE HANIM MAHALLESİ 7447/13 SK. NO: 14A KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
@@ -7020,6 +11325,21 @@
           <t>TEPEKULE MAHALLESİ 1643/23  SOK. NO: 11  İÇ KAPI NO: 2 BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -7043,6 +11363,21 @@
           <t>KARACAOĞLAN               MAHALLESİ 6174 SOKAK NO:7/F  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
@@ -7066,6 +11401,21 @@
           <t xml:space="preserve"> CAMİKEBİR MAH. İZMİR CAD. NO: 107-109A SEFERİHİSAR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -7085,6 +11435,21 @@
         </is>
       </c>
       <c r="E291" t="inlineStr"/>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
@@ -7108,6 +11473,21 @@
           <t xml:space="preserve"> CAMİKEBİR MAH. GÖZSÜZLER CADDESİ 3.ÇIKMAZI SK. NO: 9/2 SEFERİHİSAR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
@@ -7131,6 +11511,21 @@
           <t xml:space="preserve"> 11 SK. NO:7/A  SEFERİHİSAR     / İZMİR</t>
         </is>
       </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -7154,6 +11549,21 @@
           <t xml:space="preserve"> HIDIRLIK MAH. ATATÜRK CAD. NO: 31A SEFERİHİSAR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
@@ -7173,6 +11583,21 @@
         </is>
       </c>
       <c r="E295" t="inlineStr"/>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H295" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -7196,6 +11621,21 @@
           <t>ALAYBEY                   MAHALLESİ ŞEHİT ASIM AKSOY CADDESİ ALAYBEY BLOK  NO: 35A KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H296" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
@@ -7217,6 +11657,21 @@
       <c r="E297" t="inlineStr">
         <is>
           <t xml:space="preserve"> DEMİREL BULVARI NO:58/4  GÖRECE MENDERES        / İZMİR</t>
+        </is>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H297" t="inlineStr">
+        <is>
+          <t>SÜT GRUBU</t>
         </is>
       </c>
     </row>

--- a/Temizlenmiş Üye Bilgi Liste/Temizlenmiş Üye Bilgi Liste - 7. komite.xlsx
+++ b/Temizlenmiş Üye Bilgi Liste/Temizlenmiş Üye Bilgi Liste - 7. komite.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J236"/>
+  <dimension ref="A1:I236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,11 +441,10 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="26" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
-    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="24" customWidth="1" min="6" max="6"/>
     <col width="19" customWidth="1" min="7" max="7"/>
     <col width="130" customWidth="1" min="8" max="8"/>
     <col width="113" customWidth="1" min="9" max="9"/>
-    <col width="17" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -476,7 +475,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Meslek Grubu Sayı</t>
+          <t>Meslek Grubu Numarası</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -492,11 +491,6 @@
       <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Tescilli Adresi</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Meslek Grubu</t>
         </is>
       </c>
     </row>
@@ -542,11 +536,6 @@
           <t>DONANMACI MAH. 1728 SK. TAYLAN NO: 38 İÇ KAPI NO: 1 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J2" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -590,11 +579,6 @@
           <t>MEVLANA MAHALLESİ 1750/2 SK. NO: 2 A BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J3" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -638,11 +622,6 @@
           <t>GÜNEŞLİ MAHALLESİ YEŞİLLİK CAD. NO: 12 A KONAK/İZMİR</t>
         </is>
       </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -686,11 +665,6 @@
           <t>YUNUS EMRE MAHALLESİ 7553 SOKAK NO: 7A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -734,11 +708,6 @@
           <t>ATATÜRK MAH. 895 SK. NO: 7 İÇ KAPI NO: 1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -782,11 +751,6 @@
           <t>KURUÇEŞME MAH. 205 SK. NO: 70A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -830,11 +794,6 @@
           <t>EGEMENLİK MAHALLESİ 6016/10 SOKAK S.S. GERİ KAZANICILAR SİTESİ NO: 7 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -878,11 +837,6 @@
           <t>GÖKSU MAHALLESİ AYDIN HATBOYU CD. NO: 549A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -926,11 +880,6 @@
           <t>KARACAOĞLAN MAH. 6169 SK. A BLOK NO: 12A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -974,11 +923,6 @@
           <t>YAMANLAR MAHALLESİ BARIŞ CAD. NO:60/A BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1022,11 +966,6 @@
           <t>ÖRNEKKÖY MAHALLESİ GİRNE BULVARI.CADDE NO:271/A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1070,11 +1009,6 @@
           <t>HALKAPINAR MAH. 1202/8 SK. NO: 7 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1118,11 +1052,6 @@
           <t>TUNA MAH. SANAT CAD. NO: 35 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1166,11 +1095,6 @@
           <t>SELVİLİ MAHALLESİ 4019 SK. NO: 27 B KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1214,11 +1138,6 @@
           <t>GAZİ MAHALLESİ KEMAL REİS CAD. NO: 17/17/A GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1262,11 +1181,6 @@
           <t>RAFET PAŞA MAH. 5058 SK. HALİL SARAY SİTESİ NO: 11A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1310,11 +1224,6 @@
           <t>BAYRAKLI MAHALLESİ ORD.PROF.DR.EKREM AKURGAL SK. NO: 54C BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1358,11 +1267,6 @@
           <t>HÜRRİYET MAHALLESİ SÜLEYMAN DEMİREL BLV. NO:18/511 ADA 1 PARSEL A BLOK 22 NOLU BAĞIMSIZ BÖLÜM MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1406,11 +1310,6 @@
           <t>MERİÇ MAHALLESİ 5751 SK. NO: 3 BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1454,11 +1353,6 @@
           <t>DOĞANLAR MAHALLESİ 1519 SOKAK NO:35 BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1502,11 +1396,6 @@
           <t>ALSANCAK MAHALLESİ 1439 SK. NO: 15 /2C/_ KONAK/İZMİR</t>
         </is>
       </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1550,11 +1439,6 @@
           <t>KARACAOĞLAN MAHALLESİ 6169 SOKAK 11/A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1598,11 +1482,6 @@
           <t>YAYLACIK MAH. GAZİ OSMAN PAŞA CAD. NO: 46-1A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1646,11 +1525,6 @@
           <t>GAZİLER MAHALLESİ GAZİ OSMAN PAŞA CADDESİ NO: 157A İÇ KAPI NO: A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1694,11 +1568,6 @@
           <t>YILDIZ MAHALLESİ 242/1 SK. NO: 47 A/A BUCA/İZMİR</t>
         </is>
       </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1742,11 +1611,6 @@
           <t>KOŞUKAVAK MAHALLESİ 4225 SOKAK NO: 24/A- BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1790,11 +1654,6 @@
           <t>YALI MAHALLESİ 144/2 SOKAK NO:32 GÜZELBAHÇE / İZMİR</t>
         </is>
       </c>
-      <c r="J28" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1838,11 +1697,6 @@
           <t>YEŞİL MAHALLESİ ABDÜLHAMİT YAVUZ CAD. NO: 38 B/_ GAZİEMİR/İZMİR</t>
         </is>
       </c>
-      <c r="J29" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1886,11 +1740,6 @@
           <t>KÜLTÜR MAH. NEVVAR SALİH İŞGÖREN SK. YÜNCÜ APT NO: 14D KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J30" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1934,11 +1783,6 @@
           <t>VATAN MAHALLESİ POLAT CAD. NO:59/C KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J31" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1982,11 +1826,6 @@
           <t>FIRAT MAHALLESİ 288 NO:18/A BUCA/İZMİR</t>
         </is>
       </c>
-      <c r="J32" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2030,11 +1869,6 @@
           <t>GÜRPINAR MAH. 7232/4 SK. AY-KOOP SİTESİ NO: 4A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J33" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2078,11 +1912,6 @@
           <t>NARLI MAH. MİTHATPAŞA CAD. KARAHAN NO: 327B NARLIDERE / İZMİR</t>
         </is>
       </c>
-      <c r="J34" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -2126,11 +1955,6 @@
           <t>KORUTÜRK MAHALLESİ ZEYTİN SOK. MOCUK BLOK NO: 5/A BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J35" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -2174,11 +1998,6 @@
           <t>ADALET MAH. MANAS BUL. NO: 39 İÇ KAPI NO: 3201 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J36" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -2222,11 +2041,6 @@
           <t>EVKA-3 MAHALLESİ 126/12 SOKAK NERGİS-2 BLOK NO: 6-2A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J37" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -2270,11 +2084,6 @@
           <t>METİN OKTAY MAH. 108/3 SK. NO: 3A KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J38" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -2318,11 +2127,6 @@
           <t>ADATEPE MAH. 3 SK. NO: 55A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J39" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -2366,11 +2170,6 @@
           <t>FEVZİ ÇAKMAK MAHALLESİ YÖRÜK SOKAK NO:11 DEĞİRMENDERE MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J40" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -2414,11 +2213,6 @@
           <t>KÜLTÜR MAH. ZUHAL YORGANCIOĞLU SK. YÜCEL NO: 4 İÇ KAPI NO: 8 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J41" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -2462,11 +2256,6 @@
           <t>EVKA-3 MAHALLESİ CENGİZHAN CADDESİ NO:22/A ÇINAR BLOK BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J42" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -2510,11 +2299,6 @@
           <t>KAZIMDİRİK MAHALLESİ MUSTAFA KEMAL CADDESI NO: 61 A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J43" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -2558,11 +2342,6 @@
           <t>16 EYLÜL MAHALLESİ 3010 SOK. NO:9/A ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J44" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -2606,11 +2385,6 @@
           <t>VATAN MAHALLESİ İHSAN ALYANAK BLV. NO: 99A KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J45" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -2654,11 +2428,6 @@
           <t>GÜZELYALI MAHALLESİ 56 SOKAK NO: 27A İÇ KAPI NO: A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J46" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -2702,11 +2471,6 @@
           <t>POLİGON MAHALLESİ İNÖNÜ CAD. ATA Apt. NO: 695 /2A KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J47" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -2750,11 +2514,6 @@
           <t>ÜÇKUYULAR MAHALLESİ İNÖNÜ CAD. NO: 841 B/B KARABAĞLAR/İZMİR</t>
         </is>
       </c>
-      <c r="J48" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -2798,11 +2557,6 @@
           <t>GÜZELYALI MAHALLESİ 38 SOKAK NO:18/A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J49" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -2846,11 +2600,6 @@
           <t>BASIN SİTESİ MAHALLESİ İNÖNÜ CAD. NO:349/E KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J50" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -2894,11 +2643,6 @@
           <t>NARLI MAH. İSMET İNÖNÜ CAD. NO: 22A NARLIDERE / İZMİR</t>
         </is>
       </c>
-      <c r="J51" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -2942,11 +2686,6 @@
           <t>İNÖNÜ MAHALLESİ 677/31 SK. NO:2 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J52" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -2990,11 +2729,6 @@
           <t>HALKAPINAR MAHALLESİ 1202/8 SOKAK NO: 12 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J53" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -3038,11 +2772,6 @@
           <t>NARLI MAHALLESİ MİTHATPAŞA CAD. NO:325 SUZAN BLOK NARLIDERE / İZMİR</t>
         </is>
       </c>
-      <c r="J54" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -3086,11 +2815,6 @@
           <t>KASIMPAŞA MAHALLESİ ATATÜRK CAD. NO: 101-103 İÇ KAPI NO: 1 MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J55" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -3134,11 +2858,6 @@
           <t>İTOB OSB MAHALLESİ 10024 SK. NO: 16 MENDERES/İZMİR</t>
         </is>
       </c>
-      <c r="J56" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -3182,11 +2901,6 @@
           <t>EVKA 3 MAHALLESİ 112/4 SK. B BLOK Apt. NO: 15/1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J57" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -3230,11 +2944,6 @@
           <t>HALKAPINAR MAHALLESİ 1202/8 SOKAK NO:14 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J58" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -3278,11 +2987,6 @@
           <t>YILDIZ MAH. 242/1 SK. NO: 47B İÇ KAPI NO: B BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J59" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -3326,11 +3030,6 @@
           <t>HALKAPINAR MAHALLESİ 1202/7 SOKAK NO:8 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J60" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -3374,11 +3073,6 @@
           <t>CAMİKEBİR MAHALLESİ 50 SK. NO:3/A SEFERİHİSAR / İZMİR</t>
         </is>
       </c>
-      <c r="J61" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -3422,11 +3116,6 @@
           <t>CAMİKEBİR MAHALLESİ 45 SK. NO:15 SEFERİHİSAR / İZMİR</t>
         </is>
       </c>
-      <c r="J62" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -3470,11 +3159,6 @@
           <t>ATATÜRK MAHALLESİ 830/1 SK. NO: 2 B BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J63" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -3518,11 +3202,6 @@
           <t>TELEFERİK MAHALLESİ SAKARYA CADDESI NO:13/A BALÇOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J64" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -3566,11 +3245,6 @@
           <t>ONUR MAHALLESİ ATA CADDESI NO:54/B BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J65" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -3614,11 +3288,6 @@
           <t>ALAÇATI MAH. 12012 SK. NO: 54 ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J66" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -3662,11 +3331,6 @@
           <t>YALI MAH. 6500/1 SK. NO: 8I İÇ KAPI NO: 9 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J67" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -3710,11 +3374,6 @@
           <t>İNÖNÜ MAHALLESİ 9501 SOKAK NO: 1G ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J68" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -3758,11 +3417,6 @@
           <t>ADALET MAH. MANAS BUL. NO: 39 İÇ KAPI NO: 3408 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J69" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -3806,11 +3460,6 @@
           <t>ALSANCAK MAHALLESİ 1440 SK. NO: 16 A/0 KONAK/İZMİR</t>
         </is>
       </c>
-      <c r="J70" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -3854,11 +3503,6 @@
           <t>DOKUZ EYLÜL MAHALLESİ 315 SK. NO: 28 A GAZİEMİR/İZMİR</t>
         </is>
       </c>
-      <c r="J71" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -3902,11 +3546,6 @@
           <t>MAVİŞEHİR MAH. CAHER DUDAYEV BUL. NO: 28E KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J72" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -3950,11 +3589,6 @@
           <t>KUŞÇULAR MAHALLESİ 8065 SK. NO: 20 D URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J73" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -3998,11 +3632,6 @@
           <t>GÖRECE CUMHURİYET MAH. MİTHATPAŞA CAD. 2A1 NO: 2A MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J74" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -4046,11 +3675,6 @@
           <t>MEHTAP MAHALLESİ 3617 SOKAK NO:132/1 İÇ KAPI NO: 1 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J75" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -4094,11 +3718,6 @@
           <t>YAKAKENT MAH. 8172 SK. NO: 75A ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J76" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -4142,11 +3761,6 @@
           <t>HALKAPINAR MAHALLESİ 1202/8 SOKAK NO:14 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J77" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -4190,11 +3804,6 @@
           <t>GÜRPINAR MAH. 7232/4 SK. AY-KOOP SİTESİ NO: 22A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J78" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -4238,11 +3847,6 @@
           <t>KEMALPAŞA OSB MAHALLESİ ÖTEYAKA KÜME EVLERİ NO: 3 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J79" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -4286,11 +3890,6 @@
           <t>ONUR MAHALLESİ ATA CAD. ÖZKAN BLOK NO: 50A İÇ KAPI NO: /A BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J80" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -4334,11 +3933,6 @@
           <t>BOSTANLI MAHALLESİ ŞEHİTLER BULVARI NO: 11B KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J81" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -4382,11 +3976,6 @@
           <t>GÜVENDİK MAH. 236 SK. NO: 13 URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J82" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -4430,11 +4019,6 @@
           <t>BARBAROS MAH. MİTHATPAŞA CAD. HASBAY BLOK NO: 91 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J83" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
@@ -4478,11 +4062,6 @@
           <t>BAHÇELERARASI MAH. ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO: 3 İÇ KAPI NO: 1B79 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J84" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
@@ -4526,11 +4105,6 @@
           <t>BAHAR MAH. ESKİİZMİR CAD. NO: 134/1 KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J85" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
@@ -4574,11 +4148,6 @@
           <t>DOKUZ EYLÜL MAHALLESİ AKÇAY CAD. NO:253/3/1 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J86" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
@@ -4622,11 +4191,6 @@
           <t>GÖKDERE MAH. GÖKDERE CAD. NO: 38/3 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J87" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
@@ -4670,11 +4234,6 @@
           <t>BİRLİK MAH. 4217 SK. NO: 4A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J88" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
@@ -4718,11 +4277,6 @@
           <t>GÖRECE CUMHURİYET MAHALLESİ FAHRİ KORUTÜRK BLV. NO: 4 B3 MENDERES/İZMİR</t>
         </is>
       </c>
-      <c r="J89" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
@@ -4766,11 +4320,6 @@
           <t>FATİH MAHALLESİ 1203 SOKAK NO:28 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J90" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
@@ -4814,11 +4363,6 @@
           <t>YALI MAHALLESİ İDİL BİRET CADDESİ NO: 17 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J91" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
@@ -4862,11 +4406,6 @@
           <t>ATAŞEHİR MAH. 8019/4 SK. ÇALIŞCIMAN BLOK NO: 2 ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J92" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
@@ -4910,11 +4449,6 @@
           <t>KÖY İÇİ MAHALLESİ 8050 SK. NO:28/A/0 ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J93" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
@@ -4958,11 +4492,6 @@
           <t>BAHÇELİEVLER MAHALLESİ ORHAN ŞAİK GÖKYAY CD. NO: 48A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J94" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
@@ -5006,11 +4535,6 @@
           <t>BASIN SİTESİ MAH. İNÖNÜ CAD. NO: 357D KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J95" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
@@ -5054,11 +4578,6 @@
           <t>KAZIMDİRİK MAHALLESİ SAKARYA CAD. A+B BLOK NO: 1/1A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J96" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
@@ -5102,11 +4621,6 @@
           <t>ŞEMİKLER MAH. ORDU BUL. BULVAR SİTESİ NO: 218A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J97" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
@@ -5150,11 +4664,6 @@
           <t>MİTHATPAŞA CADDESİ YALI MAHALLESİ NO:365 GÜZELBAHÇE/İZMİR</t>
         </is>
       </c>
-      <c r="J98" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
@@ -5198,11 +4707,6 @@
           <t>GÖZTEPE MAH. MİTHATPAŞA CAD. NO: 911B KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J99" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
@@ -5246,11 +4750,6 @@
           <t>YENİGÜN MAH. NAZIM HİKMET CAD. FEVZİ BEY NO: 52A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J100" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
@@ -5294,11 +4793,6 @@
           <t>TEPECİK MAHALLESİ AKÇAKAYA (KÜME EVLER) NO: 3/0 SEFERİHİSAR / İZMİR</t>
         </is>
       </c>
-      <c r="J101" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
@@ -5342,11 +4836,6 @@
           <t>KAZIMDİRİK MAH. 372/30 SK. NO: 2/5 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J102" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
@@ -5390,11 +4879,6 @@
           <t>ADALET MAH. MANAS BUL. FOLKART TOWERS NO: 47B İÇ KAPI NO: 2601 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J103" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
@@ -5438,11 +4922,6 @@
           <t>YUNUS EMRE MAHALLESİ 4234 SK. NO: 21A KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J104" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
@@ -5486,11 +4965,6 @@
           <t>KONAK MAHALLESİ CUMHURİYET BLV. KONAK İŞHANI BLOK NO: 24 İÇ KAPI NO: 85 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J105" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
@@ -5534,11 +5008,6 @@
           <t>ADALET MAH. MANAS BUL. NO: 39 İÇ KAPI NO: 3408 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J106" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
@@ -5582,11 +5051,6 @@
           <t>YAYLACIK MAH. 46/7 SK. NO: 2A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J107" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
@@ -5630,11 +5094,6 @@
           <t>TURGUT MAHALLESİ PINAR SK. NO: 11/ SEFERİHİSAR/İZMİR</t>
         </is>
       </c>
-      <c r="J108" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
@@ -5678,11 +5137,6 @@
           <t>MEVLANA MAH. 1710/4 SK. NO: 19A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J109" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
@@ -5726,11 +5180,6 @@
           <t>ALİ FUAT CEBESOY MAHALLESİ 9131/13 SK. NO: 6 İÇ KAPI NO: 1 KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J110" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
@@ -5774,11 +5223,6 @@
           <t>DOKUZ EYLÜL MAHALLESİ AKÇAY CAD. EGEM APT. NO: 213 /2 GAZİEMİR/İZMİR</t>
         </is>
       </c>
-      <c r="J111" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
@@ -5822,11 +5266,6 @@
           <t>FIRAT MAH. 272 SK. PRESTIJ SİTESİ B BLOK NO: 157C İÇ KAPI NO: C BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J112" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
@@ -5870,11 +5309,6 @@
           <t>ATIFBEY MAHALLESİ 6/1 SOKAK NO:3/B GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J113" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
@@ -5918,11 +5352,6 @@
           <t>GONCALAR MAH. ALİ ALP BÖKE CAD. METİN YENİCE BLOK NO: 67D KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J114" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
@@ -5966,11 +5395,6 @@
           <t>KIRKLAR MAH. DEMOKRASİ CAD. NO: 2/2A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J115" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
@@ -6014,11 +5438,6 @@
           <t>CAMİKEBİR MAH. NECAT HEPKON CAD. NO: 23A SEFERİHİSAR / İZMİR</t>
         </is>
       </c>
-      <c r="J116" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
@@ -6062,11 +5481,6 @@
           <t>TEPECİK MAH. AKÇAKAYA KÜME EVLERİ B BLOK NO: 3 SEFERİHİSAR / İZMİR</t>
         </is>
       </c>
-      <c r="J117" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
@@ -6110,11 +5524,6 @@
           <t>MEHMET AKİF ERSOY MAHALLESİ KİRAZLI CAD. NO: 212 A KEMALPAŞA/İZMİR</t>
         </is>
       </c>
-      <c r="J118" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -6158,11 +5567,6 @@
           <t>ADALET MAHALLESİ 1586/7 SK. KIRKPINARLAR İŞ MERKEZİ KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J119" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
@@ -6206,11 +5610,6 @@
           <t>GÜVEN MAHALLESİ ONAT CADDESI NO. 15 A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J120" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
@@ -6254,11 +5653,6 @@
           <t>ONUR MAHALLESİ 7399/20 SOKAK NO:1 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J121" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
@@ -6302,11 +5696,6 @@
           <t>TINAZTEPE MAHALLESİ RAKIM ELKUTLU CAD. NO: 8 A KONAK/İZMİR</t>
         </is>
       </c>
-      <c r="J122" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
@@ -6350,11 +5739,6 @@
           <t>KAZIMDİRİK MAH. 156 SK. AKALIN NO: 7A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J123" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
@@ -6398,11 +5782,6 @@
           <t>BASIN SİTESİ MAH. İNÖNÜ CAD. ARI NO: 425 KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J124" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
@@ -6446,11 +5825,6 @@
           <t>MUAMMER AKAR MAHALLESİ 45 SOK. NO:3/C KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J125" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
@@ -6494,11 +5868,6 @@
           <t>ILICA MAHALLESİ YENİ CAMİ SOK. NO:24/A NARLIDERE / İZMİR</t>
         </is>
       </c>
-      <c r="J126" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
@@ -6542,11 +5911,6 @@
           <t>YELKİ MAHALLESİ 2245/1 SK. NO:18/A GÜZELBAHÇE / İZMİR</t>
         </is>
       </c>
-      <c r="J127" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
@@ -6590,11 +5954,6 @@
           <t>CELAL BAYAR MAHALLESİ 5176 SK. NO: 49 ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J128" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
@@ -6638,11 +5997,6 @@
           <t>GÜNEŞLİ MAHALLESİ 515 SOKAK HALLAÇ BLOK NO: 45A İÇ KAPI NO: A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J129" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
@@ -6686,11 +6040,6 @@
           <t>GAZİ OSMAN PAŞA MAH. 5490/2 SK. NO: 22 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J130" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
@@ -6734,11 +6083,6 @@
           <t>ADALET MAH. MANAS BUL. FOLKART TOWERS NO: 47B İÇ KAPI NO: 2601 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J131" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
@@ -6782,11 +6126,6 @@
           <t>ARAP HASAN MAHALLESİ 235 SK. NO:90 DAİRE:6 KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J132" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
@@ -6830,11 +6169,6 @@
           <t>GÖKSU MAHALLESİ 668/10 SK. NO: 20-22 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J133" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
@@ -6878,11 +6212,6 @@
           <t>EĞLENHOCA MAHALLESİ EĞLENHOCA (KÜME EVLER ) NO: 1 /1/1 KARABURUN / İZMİR</t>
         </is>
       </c>
-      <c r="J134" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
@@ -6926,11 +6255,6 @@
           <t>HALKAPINAR MAH. 1202/7 SK. GIDA ÇARŞISI İŞHANI NO: 1D İÇ KAPI NO: D KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J135" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
@@ -6974,11 +6298,6 @@
           <t>KIZILAY MAHALLESİ ZİYA GÖKALP CAD. NO: 10A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J136" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
@@ -7022,11 +6341,6 @@
           <t>YENİŞEHİR MAHALLESİ 1202 SOKAK HIRDAVATÇILAR İŞHANI BLOK NO:148 İÇKAPINO:115 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J137" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
@@ -7070,11 +6384,6 @@
           <t>KAZIMDİRİK MAH. 284 SK. NO: 2 İÇ KAPI NO: 609 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J138" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
@@ -7118,11 +6427,6 @@
           <t>KOŞUKAVAK MAH. KAMİL TUNCA CAD. NO: 280 İÇ KAPI NO: 87 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J139" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
@@ -7166,11 +6470,6 @@
           <t>ADALET MAHALLESİ MANAS BLV. FOLKART TOWERS APT. NO: 47 A BAYRAKLI/İZMİR</t>
         </is>
       </c>
-      <c r="J140" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
@@ -7214,11 +6513,6 @@
           <t>KÜLTÜR MAH. 1383 SK. TÜLİN NO: 7B KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J141" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
@@ -7262,11 +6556,6 @@
           <t>ALAÇATI MAH. 12012 SK. NO: 30 ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J142" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
@@ -7310,11 +6599,6 @@
           <t>MEHMET AKİF ERSOY MAH. 2. ÖTEYAKA KÜME EVLERİ NO: 15 İÇ KAPI NO: 1 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J143" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
@@ -7358,11 +6642,6 @@
           <t>KOŞUKAVAK MAH. 4195 SK. NO: 33 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J144" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
@@ -7406,11 +6685,6 @@
           <t>SELVİLİ MAHALLESİ 4082 SK. NO: 2 A KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J145" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
@@ -7454,11 +6728,6 @@
           <t>75.YIL CUMHURİYET MAHALLESİ İZMİR ANKARA CAD. NO: 701 /3 KEMALPAŞA/İZMİR</t>
         </is>
       </c>
-      <c r="J146" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
@@ -7502,11 +6771,6 @@
           <t>ARAP HASAN MAH. 239 SK. NO: 21B KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J147" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
@@ -7550,11 +6814,6 @@
           <t>BUCA KOOP MAH. 200/17 SK. B BLOK NO: 30B BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J148" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
@@ -7598,11 +6857,6 @@
           <t>KURUÇEŞME MAHALLESİ DOĞUŞ CADDESI OTAĞKENT SİTESİ NO: 196A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J149" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
@@ -7646,11 +6900,6 @@
           <t>O.S.B MAHALLESİ 10007 SOKAK NO:4 İTOB MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J150" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
@@ -7694,11 +6943,6 @@
           <t>YUNUS EMRE MAHALLESİ 7524 SOKAK NO:2/C BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J151" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
@@ -7742,11 +6986,6 @@
           <t>ALTINTAŞ MAH. ESEN SK. NO: 7A URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J152" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
@@ -7790,11 +7029,6 @@
           <t>YUNUS EMRE MAHALLESİ 7402/7 SK. NO: 12 /1C BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J153" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
@@ -7838,11 +7072,6 @@
           <t>YILDIZ MAHALLESİ 200/29 SK. NO:7/2 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J154" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
@@ -7886,11 +7115,6 @@
           <t>HALKAPINAR MAHALLESİ 1202/2 SK. NO: 4 B/_ KONAK/İZMİR</t>
         </is>
       </c>
-      <c r="J155" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
@@ -7934,11 +7158,6 @@
           <t>ADALET MAH. MANAS BUL. FOLKART TOWERS NO: 47B İÇ KAPI NO: 2601 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J156" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
@@ -7982,11 +7201,6 @@
           <t>ÇAMTEPE MAH. MİTHATPAŞA CAD. KILIÇ BLOK NO: 289A NARLIDERE / İZMİR</t>
         </is>
       </c>
-      <c r="J157" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
@@ -8030,11 +7244,6 @@
           <t>GÜVENDİK MAHALLESİ MEHMET ALİ AYGÜVEN CAD. NO:140/C 5,6,7 NOLU İŞYERİ BLOK URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J158" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
@@ -8078,11 +7287,6 @@
           <t>ÇATALKAYA MAHALLESİ MİTHATPAŞA CAD. NO:369/A NARLIDERE / İZMİR</t>
         </is>
       </c>
-      <c r="J159" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
@@ -8126,11 +7330,6 @@
           <t>YENİKENT MAHALLESİ NUR DİKMEN CAD. NO: 5 A URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J160" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
@@ -8174,11 +7373,6 @@
           <t>AKINCILAR MAHALLESİ 559 SK. NO: 8A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J161" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
@@ -8222,11 +7416,6 @@
           <t>POLİGON MAHALLESİ İHSAN ALYANAK BLV. NO: 16B KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J162" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
@@ -8270,11 +7459,6 @@
           <t>BOZYAKA MAHALLESİ COŞKUN KALE NO:4/B KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J163" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
@@ -8318,11 +7502,6 @@
           <t>FIRAT MAH. 289/21 SK. NO: 18A İÇ KAPI NO: A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J164" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
@@ -8366,11 +7545,6 @@
           <t>YİĞİTLER MAH. FEVZİ ÇAKMAK CAD. FATİH NO: 24A İÇ KAPI NO: A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J165" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
@@ -8414,11 +7588,6 @@
           <t>MENDERES MAH. SEYFİ DEMİRSOY CAD. ÖZKAN NO: 22A İÇ KAPI NO: A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J166" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
@@ -8462,11 +7631,6 @@
           <t>ÇAMTEPE MAH. MİTHATPAŞA CAD. MUSTAFA POSTACI İŞHANI BLOK NO: 291A NARLIDERE / İZMİR</t>
         </is>
       </c>
-      <c r="J167" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
@@ -8510,11 +7674,6 @@
           <t>ALAÇATI MAHALLESİ 12012 SK. NO:25 ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J168" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
@@ -8558,11 +7717,6 @@
           <t>ADATEPE MAH. 4 SK. NO: 42 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J169" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
@@ -8606,11 +7760,6 @@
           <t>YALI MAHALLESİ 6418 SK. NO: 131 D/_ KARŞIYAKA/İZMİR</t>
         </is>
       </c>
-      <c r="J170" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
@@ -8654,11 +7803,6 @@
           <t>ALİ FUAT CEBESOY MAHALLESİ 9170/5 SOKAK NO: 38 KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J171" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
@@ -8702,11 +7846,6 @@
           <t>VATAN MAHALLESİ POLAT CAD. ERZİN BLOK NO: 135A KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J172" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
@@ -8750,11 +7889,6 @@
           <t>BASIN SİTESİ MAHALLESİ İNÖNÜ CAD. KURTULUŞ BLOK NO: 355C KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J173" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
@@ -8798,11 +7932,6 @@
           <t>NARLI MAHALLESİ MİTHATPAŞA CAD. NO: 309A NARLIDERE / İZMİR</t>
         </is>
       </c>
-      <c r="J174" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
@@ -8846,11 +7975,6 @@
           <t>ALTINTAŞ MAHALLESİ İNÖNÜ CADDESİ ÖMER EFENDİ BLOK NO: 136A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J175" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
@@ -8894,11 +8018,6 @@
           <t>HÜRRİYET MAHALLESİ 471 SK. ÇAKICI BLOK NO: 31A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J176" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
@@ -8942,11 +8061,6 @@
           <t>BAHAR MAHALLESİ 2929 SK. NO: 1 İÇ KAPI NO: 1 KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J177" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
@@ -8990,11 +8104,6 @@
           <t>ESENYALI MAHALLESİ İNÖNÜ CADDESİ BAYRAKTAROĞLU BLOK NO: 589/1D KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J178" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
@@ -9038,11 +8147,6 @@
           <t>POLİGON MAHALLESİ İNÖNÜ CAD. TUĞÇE BLOK NO: 697B KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J179" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
@@ -9086,11 +8190,6 @@
           <t>VATAN MAHALLESİ POLAT CAD. KARDEŞLER BLOK NO: 31B İÇ KAPI NO: B KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J180" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
@@ -9134,11 +8233,6 @@
           <t>MUAMMER AKAR MAHALLESİ İNÖNÜ CAD. DENİZMEN BLOK NO: 765A İÇ KAPI NO: A KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J181" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
@@ -9182,11 +8276,6 @@
           <t>GÜLYAKA MAHALLESİ SAİM ÇIKRIKÇI CD. NO:123/F KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J182" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
@@ -9230,11 +8319,6 @@
           <t>BAHAR MAH. ESKİİZMİR CAD. KORKMAZ NO: 196B KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J183" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
@@ -9278,11 +8362,6 @@
           <t>ZAFERTEPE MAHALLESİ YEŞİLLİK CADDESİ NO: 27-31 İÇ KAPI NO: MÜSTAKİL KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J184" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
@@ -9326,11 +8405,6 @@
           <t>MALTEPE MAHALLESİ MALTEPE CAD. NO: 64 A ÇİĞLİ/İZMİR</t>
         </is>
       </c>
-      <c r="J185" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
@@ -9374,11 +8448,6 @@
           <t>YALI MAH. MİTHATPAŞA CAD. NO: 369A GÜZELBAHÇE / İZMİR</t>
         </is>
       </c>
-      <c r="J186" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
@@ -9422,11 +8491,6 @@
           <t>YALI MAHALLESİ MİTHATPAŞA CD. NO: 369A GÜZELBAHÇE / İZMİR</t>
         </is>
       </c>
-      <c r="J187" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
@@ -9470,11 +8534,6 @@
           <t>ÇAMTEPE MAHALLESİ GÜNGÖREN CAD. NO: 81 A NARLIDERE / İZMİR</t>
         </is>
       </c>
-      <c r="J188" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
@@ -9518,11 +8577,6 @@
           <t>HACI İSA MAHALLESİ ERDOĞAN KER CAD. NO:12/B URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J189" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
@@ -9566,11 +8620,6 @@
           <t>ESENYALI MAH. İNÖNÜ CAD. YILDIZ HANIM NO: 595E İÇ KAPI NO: E KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J190" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
@@ -9614,11 +8663,6 @@
           <t>YUNUS EMRE MAHALLESİ KEMALPAŞA CAD. NO: 317 BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J191" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
@@ -9662,11 +8706,6 @@
           <t>AKDENİZ MAH. CUMHURİYET BUL. ERBOY İŞHANI NO: 82 İÇ KAPI NO: 51 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J192" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
@@ -9710,11 +8749,6 @@
           <t>ALAÇATI MAHALLESİ 12012 SK. NO: 38 ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J193" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
@@ -9758,11 +8792,6 @@
           <t>GÖRECE CUMHURİYET MAHALLESİ FAHRİ KORUTÜRK BULVARI NO: 4B2 MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J194" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
@@ -9806,11 +8835,6 @@
           <t>KILIÇ REİS MAH. ŞÜKRÜ SARAÇOĞLU CAD. NO: 27/4C KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J195" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
@@ -9854,11 +8878,6 @@
           <t>ALAÇATI MAHALLESİ KEMALPAŞA CAD. NO:89 ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J196" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
@@ -9902,11 +8921,6 @@
           <t>DALYAN MAHALLESİ 3011 SOKAK NO: 114A ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J197" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
@@ -9950,11 +8964,6 @@
           <t>RÜSTEM MAH. ERDOĞAN KER CAD. NO: 16 URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J198" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
@@ -9998,11 +9007,6 @@
           <t>KÜLTÜR MAHALLESİ ALİ ÇETİNKAYA BLV. SİDE APT. NO: 31 /1C KONAK/İZMİR</t>
         </is>
       </c>
-      <c r="J199" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
@@ -10046,11 +9050,6 @@
           <t>TORASAN MAH. 619 SK. NO: 2/3 URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J200" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
@@ -10094,11 +9093,6 @@
           <t>GÖKDERE MAH. GÖKDERE CAD. NO: 38/3 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J201" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
@@ -10142,11 +9136,6 @@
           <t>BOSTANLI MAH. CEMAL BÜLBÜL SK. NO: 9B KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J202" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
@@ -10190,11 +9179,6 @@
           <t>KARACAOĞLAN MAHALLESİ 6166 SOKAK NO:24/D IŞIKKENT BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J203" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
@@ -10238,11 +9222,6 @@
           <t>8 EYLÜL MAHALLESİ 109 SOKAK NO: 4 A KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J204" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
@@ -10286,11 +9265,6 @@
           <t>ALAÇATI MAHALLESİ 11057 SOKAK NO:1/S ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J205" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
@@ -10334,11 +9308,6 @@
           <t>DONANMACI MAH. 1728 SK. TAYLAN NO: 38 İÇ KAPI NO: 1 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J206" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
@@ -10382,11 +9351,6 @@
           <t>ADALET MAHALLESİ MANAS BLV. NO: 39 İÇ KAPI NO: 3408 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J207" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
@@ -10430,11 +9394,6 @@
           <t>ONUR MAHALLESİ YİĞİT SOKAK BURCU BLOK NO: 5A BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J208" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
@@ -10478,11 +9437,6 @@
           <t>ADALET MAH. MANAS BUL. FOLKART TOWERS NO: 47B İÇ KAPI NO: 2804 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J209" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
@@ -10526,11 +9480,6 @@
           <t>BAHÇELİEVLER MAHALLESİ GÜN SAZAK BLV. CENTAŞ BLOK NO: 50B KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J210" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
@@ -10574,11 +9523,6 @@
           <t>KEMALPAŞA MAHALLESİ 7086 SOKAK NO:12 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J211" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
@@ -10622,11 +9566,6 @@
           <t>ÇINARLI MAH. ANADOLU CAD. NO: 19/1 İÇ KAPI NO: 85 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J212" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
@@ -10670,11 +9609,6 @@
           <t>YUNUS EMRE MAHALLESİ 7402 SOKAK NO: 4C BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J213" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
@@ -10718,11 +9652,6 @@
           <t>KARACAOĞLAN MAHALLESİ 6167 SK. NO: 40 G BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J214" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
@@ -10766,11 +9695,6 @@
           <t>HIDIRLIK MAHALLESİ NO:33 80. YIL CUMHURİYET NEYDANI SEFERİHİSAR / İZMİR</t>
         </is>
       </c>
-      <c r="J215" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
@@ -10814,11 +9738,6 @@
           <t>ÖRNEKKÖY MAH. 7415 SK. NO: 3A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J216" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
@@ -10862,11 +9781,6 @@
           <t>DÜZCE MAH MAHALLESİ NO:12/1-A KIZILCAYER BALTALI SİTESİ SEFERİHİSAR / İZMİR</t>
         </is>
       </c>
-      <c r="J217" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
@@ -10910,11 +9824,6 @@
           <t>AKALAN MAHALLESİ AKALAN CUMHURİYET KÜME EVLERİ CAD. NO:24/1 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J218" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
@@ -10958,11 +9867,6 @@
           <t>IŞIKKENT MAHALLESİ AYDINLAR CD. NO:118 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J219" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
@@ -11006,11 +9910,6 @@
           <t>ATIFBEY MAH. ÖNDER CAD. HASAN FEHİM BEY NO: 24/3D GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J220" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
@@ -11054,11 +9953,6 @@
           <t>AŞAĞIKIZILCA MAHALLESİ 2000 SOKAK NO:18/A KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J221" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
@@ -11102,11 +9996,6 @@
           <t>GÜMÜLDÜR FEVZİ ÇAKMAK MAHALLESİ GAZİ MUSTAFA KEMAL PAŞA BLV. NO: 146D MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J222" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
@@ -11150,11 +10039,6 @@
           <t>GÜMÜLDÜR İNÖNÜ MAH. 6139 SK. NO: 3/1 MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J223" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
@@ -11198,11 +10082,6 @@
           <t>ADALET MAHALLESİ MANAS BLV. FOLKART TOWERS APT. NO: 47 B/2809 BAYRAKLI/İZMİR</t>
         </is>
       </c>
-      <c r="J224" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
@@ -11246,11 +10125,6 @@
           <t>AKSOY MAHALLESİ GİRNE CAD. NO:24/B KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J225" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
@@ -11294,11 +10168,6 @@
           <t>HÜRRİYET MAHALLESİ AYDIN HATBOYU CADDESİ AYDIN BLOK NO: 86A İÇ KAPI NO: A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J226" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
@@ -11342,11 +10211,6 @@
           <t>PİRİ REİS MAHALLESİ 200 SOKAK NO: 154A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J227" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
@@ -11390,11 +10254,6 @@
           <t>KARACAOĞLAN MAH. 6169 SK. NO: 8 İÇ KAPI NO: 9 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J228" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
@@ -11438,11 +10297,6 @@
           <t>GÜNEŞLİ MAHALLESİ 529/2 SOK. NO:1/A ÜÇYOL KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J229" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
@@ -11486,11 +10340,6 @@
           <t>ZÜBEYDE HANIM MAHALLESİ 7447/13 SK. NO: 14A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J230" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
@@ -11534,11 +10383,6 @@
           <t>TEPEKULE MAHALLESİ 1643/23 SOK. NO: 11 İÇ KAPI NO: 2 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J231" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
@@ -11582,11 +10426,6 @@
           <t>KARACAOĞLAN MAHALLESİ 6174 SOKAK NO:7/F BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J232" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
@@ -11630,11 +10469,6 @@
           <t>CAMİKEBİR MAH. İZMİR CAD. NO: 107-109A SEFERİHİSAR / İZMİR</t>
         </is>
       </c>
-      <c r="J233" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
@@ -11678,11 +10512,6 @@
           <t>CAMİKEBİR MAH. GÖZSÜZLER CADDESİ 3.ÇIKMAZI SK. NO: 9/2 SEFERİHİSAR / İZMİR</t>
         </is>
       </c>
-      <c r="J234" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
@@ -11726,11 +10555,6 @@
           <t>HIDIRLIK MAH. ATATÜRK CAD. NO: 31A SEFERİHİSAR / İZMİR</t>
         </is>
       </c>
-      <c r="J235" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
@@ -11772,11 +10596,6 @@
       <c r="I236" s="2" t="inlineStr">
         <is>
           <t>ALAYBEY MAHALLESİ ŞEHİT ASIM AKSOY CADDESİ ALAYBEY BLOK NO: 35A KARŞIYAKA / İZMİR</t>
-        </is>
-      </c>
-      <c r="J236" s="2" t="inlineStr">
-        <is>
-          <t>07 - SÜT GRUBU</t>
         </is>
       </c>
     </row>
